--- a/files/soil-health-template.xlsx
+++ b/files/soil-health-template.xlsx
@@ -1,117 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maegensimmonds/projects/UCANR/organic-think-tank-reports/soil-health-shiny/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maegensimmonds/projects/UCANR/ca-soil-health-reports-clean/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96137471-F1A8-534C-98BD-A2268E55A93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F57605-A4FE-E648-8FDA-EC472211F164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5720" yWindow="500" windowWidth="45480" windowHeight="22800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Instructions" sheetId="1" r:id="rId1"/>
+    <sheet name="Instructions" sheetId="5" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="Data Dictionary" sheetId="3" r:id="rId3"/>
+    <sheet name="Detailed Column Guide" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="116">
-  <si>
-    <t>Instructions.for.using.this.template</t>
-  </si>
-  <si>
-    <t>This template contains example data that should be replaced with your project's sample metadata and results.</t>
-  </si>
-  <si>
-    <t>What data do I need?</t>
-  </si>
-  <si>
-    <t>• You need results from at least one soil sample for at least one soil health measurement, in addition to texture.</t>
-  </si>
-  <si>
-    <t>• Texture is a required measurement and must be included in both the Data tab and the Data Dictionary tab.</t>
-  </si>
-  <si>
-    <t>• The more soil samples you include, the more meaningful the project, crop, and/or county comparisons will be in each producer’s custom report.</t>
-  </si>
-  <si>
-    <t>• Each column must contain either:
-   • Sample metadata (e.g., year, sample_id, producer_id, field_id, etc.)
-   • Measurement results (e.g., texture, om_percent, etc.)</t>
-  </si>
-  <si>
-    <t>• Each row should represent a single soil sample (unique sample_id) with its corresponding metadata and measurement results.</t>
-  </si>
-  <si>
-    <t>What are the unique identifiers required?</t>
-  </si>
-  <si>
-    <t>• sample_id: A unique identifier for each soil sample (can be any alphanumeric value or a combination of year, producer_id, and field_id).</t>
-  </si>
-  <si>
-    <t>• producer_id: Reports are generated for each producer_id in a given year. This can be an alphanumeric value or the producer’s name. Note: The tool does not currently support comparisons of soil samples over time.</t>
-  </si>
-  <si>
-    <t>• field_id: Used to distinguish between different fields if a producer has multiple samples in the same year. This should be unique within a producer_id and year combination and can be any alphanumeric value or a field name assigned by the producer.</t>
-  </si>
-  <si>
-    <t>How do I fill out the Data tab?</t>
-  </si>
-  <si>
-    <t>1. Review the example data structure and prepare your project’s data accordingly.</t>
-  </si>
-  <si>
-    <t>2. Metadata (columns A–I: year through latitude) should not be deleted:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    • Metadata columns with bold headers must not contain blanks. Replace example values with your own data.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    • Metadata columns with non-bold headers can have missing values. Replace the example values with your samples' metadata. If a column is not relevant, delete the example values and leave it blank (do not delete the entire column). Missing metadata will be handled in reports (e.g., if farm_name is missing, producer_id will be used instead; if crop is missing, crop averages will be excluded from tables and plots).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    • latitude and longitude must be provided in decimal form.  Latitude must be between -90 and 90. Longitude must be between -180 and 180. Providing these coordinates is optional - if not included, no map will appear in the report.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Measurement results (columns J–AO: texture through na_mg_kg): </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    • Texture must be included in all datasets. The texture triangle used in the reports uses the USDA NRCS textural classification.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    • Delete any columns for measurements not analyzed in your project.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    • Add any additional measurements not included in this template.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    • Important: Measurement column names in the Data tab must match the values in the column_name column of the Data Dictionary tab. Update the Data Dictionary tab after this step.</t>
-  </si>
-  <si>
-    <t>How do I fill out the Data Dictionary tab?</t>
-  </si>
-  <si>
-    <t>Customize how the measurements appear in the Project Results section of the reports by editing the following columns:</t>
-  </si>
-  <si>
-    <t>• measurement_group: Defines how measurements are grouped into sections.</t>
-  </si>
-  <si>
-    <t>• column_name: Links the Data tab to the Data Dictionary tab. Each measurement column header in Data must have a corresponding row in the column_name of Data Dictionary.</t>
-  </si>
-  <si>
-    <t>• abbr: Abbreviation used for the measurement in tables and plots.</t>
-  </si>
-  <si>
-    <t>• unit: Unit of measurement displayed in tables and plots.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="199">
   <si>
     <t>year</t>
   </si>
@@ -372,13 +284,1149 @@
   </si>
   <si>
     <t>treatment_id</t>
+  </si>
+  <si>
+    <t>Instructions for using this template</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>year</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Year of sampling</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — where you enter your soil sample results</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">This template provides the correct structure for entering your soil health data into the app.It contains two main sheets:
+	</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Data Dictionary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — a reference table that links each column to how it will appear in the report</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Each row = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>one soil sample with a unique sample_id.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Each column =</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a metadata field (e.g. year, sample_id) or a soil health measurement (e.g. texture, ph).</t>
+    </r>
+  </si>
+  <si>
+    <t>• The more soil samples and measurements you include, the more comprehensive your report will be.</t>
+  </si>
+  <si>
+    <t>These four columns must be present for the app to run:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sample_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Unique ID for each  sample (no spaces; use underscores if needed) (e.g., Smith_Field2_Sample1).</t>
+    </r>
+  </si>
+  <si>
+    <t>1. What the Report Shows</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Each report </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>spotlights</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>one producer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (identified by producer_id).</t>
+    </r>
+  </si>
+  <si>
+    <t>If you want reports for multiple producers, re-run the app and select a different producer_id each time.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• If your file includes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>only one producer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, the report will show </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>that producer’s results only</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>no comparisons</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• If your file includes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>multiple producers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, the selected producer’s data will be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>compared to all others</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the file.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• You can also use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>filters in the app</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (e.g., by </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>soil texture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>crop type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) to refine which background data are included in the comparison.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        field_id — to compare different fields within that producer</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        treatment_id — to compare management treatments (e.g., </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Control</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Compost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No_Till</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>2. What data do I need?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• You need results from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>at least one soil sample for at least one soil health measurement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, plus </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">texture </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(required).</t>
+    </r>
+  </si>
+  <si>
+    <t>3. Required Columns</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>producer_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Name or ID of the producer (no spaces). Determines which producer can be selected in the app.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>texture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Soil texture classification (e.g., </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sandy Loam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Clay</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>4. Optional Columns</t>
+  </si>
+  <si>
+    <t>Include any of the following to enrich your report:</t>
+  </si>
+  <si>
+    <t>• field_id: Distinguishes fields for the same producer and year (optional grouping).</t>
+  </si>
+  <si>
+    <t>• treatment_id: Groups samples by management treatment (optional grouping)</t>
+  </si>
+  <si>
+    <t>• crop: Crop type at time of sampling (enables in-app filtering)</t>
+  </si>
+  <si>
+    <t>• latitude/longitude: Enables mapping features (decimal format)</t>
+  </si>
+  <si>
+    <t>• Additional soil measurements: pH, organic matter, etc.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• Within a single producer, you can </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>optionally group samples</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>See the Data Dictionary tab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for definitions, units, and groupings of each measurement column.</t>
+    </r>
+  </si>
+  <si>
+    <t>5. Filling out the Data Sheet</t>
+  </si>
+  <si>
+    <t>1. Review the example structure and align your dataset to match it.</t>
+  </si>
+  <si>
+    <t>2. Enter metadata in columns A–J and your measurement results in the remaining columns.</t>
+  </si>
+  <si>
+    <t>3. Include one or more producers:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      • With multiple producers → select which producer to spotlight in the app.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      • With one producer → report shows only that producer’s results.</t>
+  </si>
+  <si>
+    <t>5. If you don’t have data for certain measurements, you may:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      • Leave those columns blank (the app will ignore them), or</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      • Delete unused measurement columns.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If you delete a measurement column, also delete its corresponding </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>row in the Data Dictionary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>6. About the Data Dictionary</t>
+  </si>
+  <si>
+    <t>The Data Dictionary is already filled in and defines how each measurement appears in your report:</t>
+  </si>
+  <si>
+    <t>• Do not edit or rename existing entries unless you understand the structure.</t>
+  </si>
+  <si>
+    <t>• You may add a new measurement column if needed — just add a matching row to the Data Dictionary with measurement_group, abbr, and unit.</t>
+  </si>
+  <si>
+    <t>• If you delete a measurement column from the Data sheet, also remove the matching row in the Data Dictionary.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Custom measurements appear in your data tables and plots, but are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not yet integrated</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> into the indicators table with definitions. This may be supported in future versions of the app.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      • </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A–J (Metadata)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: year, sample_id, farm_name, producer_id, field_id, treatment_id, county, crop, latitude, longitude</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      • </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>K onward (Measurements)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: texture and other soil health indicators (see the Data Dictionary tab).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. In the app, you can also filter which </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">texture(s) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>crop(s)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to include in the report.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6. Do </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not delete or rename required columns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (sample_id, producer_id, year, texture).</t>
+    </r>
+  </si>
+  <si>
+    <t>Column Name</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Example Entry</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>2025_Montoya_FieldA_1</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>MontoyasFarm</t>
+  </si>
+  <si>
+    <t>Sylvia_Montoya</t>
+  </si>
+  <si>
+    <t>Compost</t>
+  </si>
+  <si>
+    <t>Yolo</t>
+  </si>
+  <si>
+    <t>Tomatoes</t>
+  </si>
+  <si>
+    <t>Sandy Loam</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7. For detailed, column-by-column guidance (definitions and examples), see the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Data Dictionary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tab or the “Detailed Column Guide”.</t>
+    </r>
+  </si>
+  <si>
+    <t>FieldA_North_Pasture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      • Use plain text or numeric values only — do not include commas, symbols, or special characters in any cells.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      • For identifier fields (producer_id, sample_id, field_id): replace spaces with underscores (_) to avoid potential issues.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     • For descriptive text (crop, county, texture): spaces are acceptable (e.g. Sandy Loam, Annual Crop).</t>
+  </si>
+  <si>
+    <t>Calendar year the soil sample was collected</t>
+  </si>
+  <si>
+    <t>Unique identifier for each soil sample. Avoid spaces; use underscores. Combine producer, field, or year if needed</t>
+  </si>
+  <si>
+    <t>Farm name for internal reference (not used in the app). Avoid spaces; use underscores</t>
+  </si>
+  <si>
+    <t>Name or ID of the producer. Determines which producer can be selected in the app. No spaces</t>
+  </si>
+  <si>
+    <t>Field or plot name within a producer (used for optional grouping)</t>
+  </si>
+  <si>
+    <t>Treatment or management category for comparison (e.g. Control, Compost, No_Till)</t>
+  </si>
+  <si>
+    <t>County where the sample was collected</t>
+  </si>
+  <si>
+    <t>Crop type grown at sampling. Enables filtering in the app</t>
+  </si>
+  <si>
+    <t>Decimal latitude of the sampling point (between -90 and 90). Enables mapping in the app</t>
+  </si>
+  <si>
+    <t>Decimal longitude of the sampling point (between -180 and 180). Enables mapping in the app</t>
+  </si>
+  <si>
+    <t>USDA NRCS soil texture class (e.g. Sandy Loam, Clay). Required for all samples</t>
+  </si>
+  <si>
+    <t>Percent sand fraction in the soil (0–100)</t>
+  </si>
+  <si>
+    <t>Percent silt fraction in the soil (0–100)</t>
+  </si>
+  <si>
+    <t>Percent clay fraction in the soil (0–100)</t>
+  </si>
+  <si>
+    <t>Percent water-stable aggregates (0–100); indicates soil structure stability</t>
+  </si>
+  <si>
+    <t>Soil pH (acidity/alkalinity; typical range 4–9)</t>
+  </si>
+  <si>
+    <t>Cation Exchange Capacity (cmolc/kg); indicates nutrient-holding capacity</t>
+  </si>
+  <si>
+    <t>Phosphorus concentration (ppm)</t>
+  </si>
+  <si>
+    <t>Potassium concentration (ppm)</t>
+  </si>
+  <si>
+    <t>Calcium concentration (ppm)</t>
+  </si>
+  <si>
+    <t>Magnesium concentration (ppm)</t>
+  </si>
+  <si>
+    <t>Total nitrogen (%)</t>
+  </si>
+  <si>
+    <t>Potentially Mineralizable Nitrogen after 28 days (ppm); indicates nitrogen supply potential</t>
+  </si>
+  <si>
+    <t>Nitrate-N concentration (ppm)</t>
+  </si>
+  <si>
+    <t>Total carbon (%)</t>
+  </si>
+  <si>
+    <t>Organic matter content (%)</t>
+  </si>
+  <si>
+    <t>Soil respiration (µg C/g soil/day) after 24-hour incubation; measures microbial activity</t>
+  </si>
+  <si>
+    <t>Permanganate-oxidizable carbon (ppm); indicates active carbon pool</t>
+  </si>
+  <si>
+    <t>Microbial biomass carbon or nitrogen (ng/g)</t>
+  </si>
+  <si>
+    <t>Biomass of bacterial community (ng/g)</t>
+  </si>
+  <si>
+    <t>Biomass of fungal community (ng/g)</t>
+  </si>
+  <si>
+    <t>Arbuscular mycorrhizal fungi biomass (ng/g)</t>
+  </si>
+  <si>
+    <t>Ratio of fungal to bacterial biomass (dimensionless)</t>
+  </si>
+  <si>
+    <t>Protozoa biomass (ng/g)</t>
+  </si>
+  <si>
+    <t>Undifferentiated microbial biomass (ng/g)</t>
+  </si>
+  <si>
+    <t>Time for first inch of water to infiltrate during field infiltration test (seconds)</t>
+  </si>
+  <si>
+    <t>Time for second inch of water to infiltrate during field infiltration test (seconds)</t>
+  </si>
+  <si>
+    <t>Number of visible biopores per sampling area (count)</t>
+  </si>
+  <si>
+    <t>Count of visible invertebrates or other soil organisms</t>
+  </si>
+  <si>
+    <t>Aggregate stability index (qualitative or numeric)</t>
+  </si>
+  <si>
+    <t>Nitrate quick test value (ppm)</t>
+  </si>
+  <si>
+    <t>Sodium concentration (mg/kg)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -394,6 +1442,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -403,7 +1483,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -411,15 +1491,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -723,156 +1830,320 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D52516F-F4C0-4F41-9C2D-F3AC8C356E9B}">
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>15</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>28</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="7"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -884,143 +2155,160 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AP1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AD18" sqref="AD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="AN1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="AO1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="AP1" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1032,438 +2320,1076 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D20" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D21" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D22" s="11" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01397289-77D7-E144-981D-8BD740316FD9}">
+  <dimension ref="A1:D43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>157</v>
+      </c>
+      <c r="D2">
+        <v>2025</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>162</v>
+      </c>
+      <c r="D7" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>145</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>165</v>
+      </c>
+      <c r="D10">
+        <v>38.558999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" t="s">
-        <v>88</v>
+        <v>166</v>
+      </c>
+      <c r="D11">
+        <v>-121.739</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>145</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" t="s">
-        <v>90</v>
+        <v>168</v>
+      </c>
+      <c r="D13">
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" t="s">
-        <v>90</v>
+        <v>169</v>
+      </c>
+      <c r="D14">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" t="s">
-        <v>90</v>
+        <v>170</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>145</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" t="s">
-        <v>77</v>
+        <v>171</v>
+      </c>
+      <c r="D16">
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" t="s">
-        <v>90</v>
+        <v>172</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" t="s">
-        <v>90</v>
+        <v>173</v>
+      </c>
+      <c r="D18">
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" t="s">
-        <v>90</v>
+        <v>174</v>
+      </c>
+      <c r="D19">
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" t="s">
-        <v>77</v>
+        <v>175</v>
+      </c>
+      <c r="D20">
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" t="s">
-        <v>77</v>
+        <v>176</v>
+      </c>
+      <c r="D21">
+        <v>1800</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
-      </c>
-      <c r="D22" t="s">
-        <v>102</v>
+        <v>177</v>
+      </c>
+      <c r="D22">
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
-      </c>
-      <c r="D23" t="s">
-        <v>90</v>
+        <v>178</v>
+      </c>
+      <c r="D23">
+        <v>0.15</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" t="s">
-        <v>106</v>
+        <v>179</v>
+      </c>
+      <c r="D24">
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C25" t="s">
-        <v>107</v>
-      </c>
-      <c r="D25" t="s">
-        <v>106</v>
+        <v>180</v>
+      </c>
+      <c r="D25">
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c r="C26" t="s">
-        <v>108</v>
-      </c>
-      <c r="D26" t="s">
-        <v>106</v>
+        <v>181</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="C27" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" t="s">
-        <v>106</v>
+        <v>182</v>
+      </c>
+      <c r="D27">
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="C28" t="s">
-        <v>110</v>
+        <v>183</v>
+      </c>
+      <c r="D28">
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="C29" t="s">
-        <v>111</v>
-      </c>
-      <c r="D29" t="s">
-        <v>106</v>
+        <v>184</v>
+      </c>
+      <c r="D29">
+        <v>470</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
-      </c>
-      <c r="D30" t="s">
-        <v>106</v>
+        <v>185</v>
+      </c>
+      <c r="D30">
+        <v>1250</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="C31" t="s">
-        <v>113</v>
+        <v>186</v>
+      </c>
+      <c r="D31">
+        <v>850</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c r="C32" t="s">
-        <v>114</v>
+        <v>187</v>
+      </c>
+      <c r="D32">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" t="s">
+        <v>189</v>
+      </c>
+      <c r="D34">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" t="s">
+        <v>190</v>
+      </c>
+      <c r="D35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" t="s">
+        <v>191</v>
+      </c>
+      <c r="D36">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" t="s">
+        <v>192</v>
+      </c>
+      <c r="D37">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" t="s">
+        <v>193</v>
+      </c>
+      <c r="D38">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" t="s">
+        <v>194</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" t="s">
+        <v>195</v>
+      </c>
+      <c r="D40">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" t="s">
+        <v>196</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>145</v>
+      </c>
+      <c r="C42" t="s">
+        <v>197</v>
+      </c>
+      <c r="D42">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" t="s">
+        <v>198</v>
+      </c>
+      <c r="D43">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/files/soil-health-template.xlsx
+++ b/files/soil-health-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maegensimmonds/projects/UCANR/ca-soil-health-reports-clean/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F57605-A4FE-E648-8FDA-EC472211F164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7339D71-3427-6548-9820-F108A118B84A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5720" yWindow="500" windowWidth="45480" windowHeight="22800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="200">
   <si>
     <t>year</t>
   </si>
@@ -1420,6 +1420,32 @@
   </si>
   <si>
     <t>Sodium concentration (mg/kg)</t>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Detailed Column Guide</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — provides definitions and example entries for each column</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1831,11 +1857,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D52516F-F4C0-4F41-9C2D-F3AC8C356E9B}">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1874,7 +1898,9 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+      <c r="A5" t="s">
+        <v>199</v>
+      </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -1884,265 +1910,275 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="7"/>
-    </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="7"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2779,7 +2815,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
